--- a/Emotions-1145137880.xlsx
+++ b/Emotions-1145137880.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Дата</t>
   </si>
@@ -52,6 +52,30 @@
     <t>13:41:58.476898</t>
   </si>
   <si>
+    <t>14:37:02.074061</t>
+  </si>
+  <si>
+    <t>07:45:42.469596</t>
+  </si>
+  <si>
+    <t>09:55:26.951910</t>
+  </si>
+  <si>
+    <t>13:01:40.324878</t>
+  </si>
+  <si>
+    <t>17:04:14.081341</t>
+  </si>
+  <si>
+    <t>13:44:45.597882</t>
+  </si>
+  <si>
+    <t>23:01:56.319256</t>
+  </si>
+  <si>
+    <t>23:06:46.726017</t>
+  </si>
+  <si>
     <t>удовлетворение</t>
   </si>
   <si>
@@ -76,6 +100,30 @@
     <t>любопытство</t>
   </si>
   <si>
+    <t>разочарование</t>
+  </si>
+  <si>
+    <t>жалость</t>
+  </si>
+  <si>
+    <t>озабоченность</t>
+  </si>
+  <si>
+    <t>грусть</t>
+  </si>
+  <si>
+    <t>радость</t>
+  </si>
+  <si>
+    <t>печаль</t>
+  </si>
+  <si>
+    <t>усталость</t>
+  </si>
+  <si>
+    <t>тревогу</t>
+  </si>
+  <si>
     <t>Тренинг идёт по плану и в тайминге. Участники рабо</t>
   </si>
   <si>
@@ -98,6 +146,30 @@
   </si>
   <si>
     <t>Учусь</t>
+  </si>
+  <si>
+    <t>Проиграли в футволей</t>
+  </si>
+  <si>
+    <t>К ребёнку</t>
+  </si>
+  <si>
+    <t>Беспокоюсь за дочь</t>
+  </si>
+  <si>
+    <t>Тем, чего я не могу изменить</t>
+  </si>
+  <si>
+    <t>Оплатила кредит</t>
+  </si>
+  <si>
+    <t>Не скажу</t>
+  </si>
+  <si>
+    <t>Вечер</t>
+  </si>
+  <si>
+    <t>Мама плохо себя чувствует</t>
   </si>
 </sst>
 </file>
@@ -459,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,10 +562,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -507,10 +579,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -524,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -541,10 +613,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -558,10 +630,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -575,10 +647,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -592,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -609,10 +681,146 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44394</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44395</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44395</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44395</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44396</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44401</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>27</v>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
